--- a/teste.xlsx
+++ b/teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caue Foyth\Desktop\HYPERLOCAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0D1C6B-05BA-4395-ACF6-3CF4C57CC296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3CA213-5097-4CA2-88B8-D09B138944BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B9DEFDB-97C3-4079-BB15-D584A368DC02}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Banco</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>cpf/cnpj</t>
+  </si>
+  <si>
+    <t>51167876000168</t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +147,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -167,51 +190,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -249,49 +233,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EE880-91A3-4E78-B358-4D67652E1DB2}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,13 +625,13 @@
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -631,102 +639,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="7">
         <v>1000</v>
       </c>
-      <c r="D2" s="16">
-        <v>45215</v>
-      </c>
-      <c r="E2" s="16">
-        <v>45215</v>
-      </c>
-      <c r="F2" s="17" t="str">
+      <c r="D2" s="8">
+        <v>45290</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45290</v>
+      </c>
+      <c r="F2" s="9" t="str">
         <f t="shared" ref="F2" ca="1" si="0">IF(D2="","",IF(AND(E2="",D2&lt;=TODAY()),"Atrasado",IF(E2&lt;&gt;"","Pago","A Vencer")))</f>
         <v>Pago</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -909,18 +937,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,14 +970,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{992E816A-A820-4DA1-B62A-A7C4B7C30832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED3AE50-195D-487E-86BB-B93DA22CB502}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -963,4 +983,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{992E816A-A820-4DA1-B62A-A7C4B7C30832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>